--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>9006.601588472855</v>
+        <v>10124.7104883158</v>
       </c>
       <c r="R2">
-        <v>9006.601588472855</v>
+        <v>91122.39439484215</v>
       </c>
       <c r="S2">
-        <v>0.008414922775668753</v>
+        <v>0.008683878968180351</v>
       </c>
       <c r="T2">
-        <v>0.008414922775668753</v>
+        <v>0.008683878968180349</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>9587.001078482846</v>
+        <v>10671.81990901055</v>
       </c>
       <c r="R3">
-        <v>9587.001078482846</v>
+        <v>96046.37918109493</v>
       </c>
       <c r="S3">
-        <v>0.008957193557771786</v>
+        <v>0.009153130113400488</v>
       </c>
       <c r="T3">
-        <v>0.008957193557771786</v>
+        <v>0.009153130113400486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>6181.937746687092</v>
+        <v>6894.946539500204</v>
       </c>
       <c r="R4">
-        <v>6181.937746687092</v>
+        <v>62054.51885550185</v>
       </c>
       <c r="S4">
-        <v>0.005775822126843305</v>
+        <v>0.005913737613553596</v>
       </c>
       <c r="T4">
-        <v>0.005775822126843305</v>
+        <v>0.005913737613553596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>4793.341427134823</v>
+        <v>5377.886011097177</v>
       </c>
       <c r="R5">
-        <v>4793.341427134823</v>
+        <v>48400.9740998746</v>
       </c>
       <c r="S5">
-        <v>0.00447844811947462</v>
+        <v>0.004612567567135109</v>
       </c>
       <c r="T5">
-        <v>0.00447844811947462</v>
+        <v>0.004612567567135108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>3168.868848017965</v>
+        <v>3694.250813234287</v>
       </c>
       <c r="R6">
-        <v>3168.868848017965</v>
+        <v>33248.25731910858</v>
       </c>
       <c r="S6">
-        <v>0.002960693484701479</v>
+        <v>0.003168527828746325</v>
       </c>
       <c r="T6">
-        <v>0.002960693484701479</v>
+        <v>0.003168527828746324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>220690.5350004403</v>
+        <v>222874.070177235</v>
       </c>
       <c r="R7">
-        <v>220690.5350004403</v>
+        <v>2005866.631595115</v>
       </c>
       <c r="S7">
-        <v>0.2061925123596605</v>
+        <v>0.1911572141048736</v>
       </c>
       <c r="T7">
-        <v>0.2061925123596605</v>
+        <v>0.1911572141048737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>234912.1781702928</v>
+        <v>234917.5259938992</v>
       </c>
       <c r="R8">
-        <v>234912.1781702928</v>
+        <v>2114257.733945094</v>
       </c>
       <c r="S8">
-        <v>0.2194798802799414</v>
+        <v>0.2014867847914857</v>
       </c>
       <c r="T8">
-        <v>0.2194798802799414</v>
+        <v>0.2014867847914857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>151477.2398061763</v>
+        <v>151777.6533646323</v>
       </c>
       <c r="R9">
-        <v>151477.2398061763</v>
+        <v>1365998.880281691</v>
       </c>
       <c r="S9">
-        <v>0.1415261086791961</v>
+        <v>0.1301784158089191</v>
       </c>
       <c r="T9">
-        <v>0.1415261086791961</v>
+        <v>0.1301784158089192</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>117452.1903298183</v>
+        <v>118382.7770310718</v>
       </c>
       <c r="R10">
-        <v>117452.1903298183</v>
+        <v>1065444.993279646</v>
       </c>
       <c r="S10">
-        <v>0.1097362975090977</v>
+        <v>0.1015359114555695</v>
       </c>
       <c r="T10">
-        <v>0.1097362975090977</v>
+        <v>0.1015359114555695</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>77647.4183459349</v>
+        <v>81321.11194204105</v>
       </c>
       <c r="R11">
-        <v>77647.4183459349</v>
+        <v>731890.0074783695</v>
       </c>
       <c r="S11">
-        <v>0.07254645636233546</v>
+        <v>0.06974843324927515</v>
       </c>
       <c r="T11">
-        <v>0.07254645636233546</v>
+        <v>0.06974843324927515</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>39088.700795091</v>
+        <v>41092.8565945318</v>
       </c>
       <c r="R12">
-        <v>39088.700795091</v>
+        <v>369835.7093507861</v>
       </c>
       <c r="S12">
-        <v>0.03652081146932192</v>
+        <v>0.03524499723083595</v>
       </c>
       <c r="T12">
-        <v>0.03652081146932192</v>
+        <v>0.03524499723083594</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>41607.63779744049</v>
+        <v>43313.39307229796</v>
       </c>
       <c r="R13">
-        <v>41607.63779744049</v>
+        <v>389820.5376506816</v>
       </c>
       <c r="S13">
-        <v>0.03887426966810292</v>
+        <v>0.03714953267800788</v>
       </c>
       <c r="T13">
-        <v>0.03887426966810292</v>
+        <v>0.03714953267800787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>26829.64407167738</v>
+        <v>27984.3112256513</v>
       </c>
       <c r="R14">
-        <v>26829.64407167738</v>
+        <v>251858.8010308617</v>
       </c>
       <c r="S14">
-        <v>0.02506710003146982</v>
+        <v>0.02400190819993222</v>
       </c>
       <c r="T14">
-        <v>0.02506710003146982</v>
+        <v>0.02400190819993222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>20803.12835129604</v>
+        <v>21827.06348895475</v>
       </c>
       <c r="R15">
-        <v>20803.12835129604</v>
+        <v>196443.5714005927</v>
       </c>
       <c r="S15">
-        <v>0.01943648965138289</v>
+        <v>0.01872088864048114</v>
       </c>
       <c r="T15">
-        <v>0.01943648965138289</v>
+        <v>0.01872088864048114</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>13752.90835753085</v>
+        <v>14993.74417349108</v>
       </c>
       <c r="R16">
-        <v>13752.90835753085</v>
+        <v>134943.6975614197</v>
       </c>
       <c r="S16">
-        <v>0.01284942612734071</v>
+        <v>0.01286000817827975</v>
       </c>
       <c r="T16">
-        <v>0.01284942612734071</v>
+        <v>0.01286000817827975</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>21641.28416231101</v>
+        <v>42570.27808013489</v>
       </c>
       <c r="R17">
-        <v>21641.28416231101</v>
+        <v>383132.502721214</v>
       </c>
       <c r="S17">
-        <v>0.02021958373569277</v>
+        <v>0.03651216920387877</v>
       </c>
       <c r="T17">
-        <v>0.02021958373569277</v>
+        <v>0.03651216920387877</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>23035.8823542686</v>
+        <v>44870.65004692991</v>
       </c>
       <c r="R18">
-        <v>23035.8823542686</v>
+        <v>403835.8504223692</v>
       </c>
       <c r="S18">
-        <v>0.02152256532904203</v>
+        <v>0.03848517887803153</v>
       </c>
       <c r="T18">
-        <v>0.02152256532904203</v>
+        <v>0.03848517887803153</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>14854.11230146979</v>
+        <v>28990.43798565082</v>
       </c>
       <c r="R19">
-        <v>14854.11230146979</v>
+        <v>260913.9418708574</v>
       </c>
       <c r="S19">
-        <v>0.01387828768599652</v>
+        <v>0.0248648546536176</v>
       </c>
       <c r="T19">
-        <v>0.01387828768599652</v>
+        <v>0.0248648546536176</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>11517.55885864505</v>
+        <v>22611.81722083563</v>
       </c>
       <c r="R20">
-        <v>11517.55885864505</v>
+        <v>203506.3549875207</v>
       </c>
       <c r="S20">
-        <v>0.01076092546202559</v>
+        <v>0.01939396531120133</v>
       </c>
       <c r="T20">
-        <v>0.01076092546202559</v>
+        <v>0.01939396531120133</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>7614.236128843796</v>
+        <v>15532.81791105402</v>
       </c>
       <c r="R21">
-        <v>7614.236128843796</v>
+        <v>139795.3611994862</v>
       </c>
       <c r="S21">
-        <v>0.007114027237746582</v>
+        <v>0.01332236718571245</v>
       </c>
       <c r="T21">
-        <v>0.007114027237746582</v>
+        <v>0.01332236718571245</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H22">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>4030.589666789474</v>
+        <v>4432.883342684503</v>
       </c>
       <c r="R22">
-        <v>4030.589666789474</v>
+        <v>39895.95008416053</v>
       </c>
       <c r="S22">
-        <v>0.003765804499429712</v>
+        <v>0.003802046732334604</v>
       </c>
       <c r="T22">
-        <v>0.003765804499429712</v>
+        <v>0.003802046732334604</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H23">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>4290.327167562039</v>
+        <v>4672.423252534012</v>
       </c>
       <c r="R23">
-        <v>4290.327167562039</v>
+        <v>42051.80927280611</v>
       </c>
       <c r="S23">
-        <v>0.004008478829972286</v>
+        <v>0.004007498096853373</v>
       </c>
       <c r="T23">
-        <v>0.004008478829972286</v>
+        <v>0.004007498096853373</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H24">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>2766.510115693666</v>
+        <v>3018.801742422454</v>
       </c>
       <c r="R24">
-        <v>2766.510115693666</v>
+        <v>27169.21568180208</v>
       </c>
       <c r="S24">
-        <v>0.002584767267985253</v>
+        <v>0.002589200845829745</v>
       </c>
       <c r="T24">
-        <v>0.002584767267985253</v>
+        <v>0.002589200845829745</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H25">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>2145.092378720329</v>
+        <v>2354.589925801848</v>
       </c>
       <c r="R25">
-        <v>2145.092378720329</v>
+        <v>21191.30933221664</v>
       </c>
       <c r="S25">
-        <v>0.002004172887663816</v>
+        <v>0.002019511961251277</v>
       </c>
       <c r="T25">
-        <v>0.002004172887663816</v>
+        <v>0.002019511961251277</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H26">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>1418.116468100366</v>
+        <v>1617.447028493658</v>
       </c>
       <c r="R26">
-        <v>1418.116468100366</v>
+        <v>14557.02325644292</v>
       </c>
       <c r="S26">
-        <v>0.001324954862135975</v>
+        <v>0.001387270702613278</v>
       </c>
       <c r="T26">
-        <v>0.001324954862135975</v>
+        <v>0.001387270702613278</v>
       </c>
     </row>
   </sheetData>
